--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="toppage" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -421,33 +420,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>this should be the first sheet</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="1" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
 </worksheet>
 </file>
--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TITLE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20220214" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,4 +432,365 @@
   <sheetData/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="1" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15番線発</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>東海道新幹線</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>203A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>のぞみ203号</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>新大阪</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0839</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16番線着</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0845</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6番線発</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>特別快速</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>番線着</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15番線発</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>東海道新幹線</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>203A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>のぞみ203号</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>新大阪</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0839</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16番線着</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0845</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6番線発</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>特別快速</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0918</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>番線着</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0700</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>15番線発</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>東海道新幹線</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>203A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>のぞみ203号</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>新大阪</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0839</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>16番線着</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0845</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6番線発</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>特別快速</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0918</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>番線着</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
+</worksheet>
 </file>
--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -424,10 +424,10 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="3" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
@@ -450,10 +450,10 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="3" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -464,34 +464,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>東京</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>15番線発</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>東海道新幹線</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>203A</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>のぞみ203号</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>新大阪</t>
         </is>
@@ -505,12 +505,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>名古屋</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16番線着</t>
         </is>
       </c>
     </row>
@@ -522,29 +522,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>名古屋</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6番線発</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>東海道本線</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>特別快速</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>大垣</t>
         </is>
@@ -556,14 +556,9 @@
           <t>0918</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>大垣</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>番線着</t>
         </is>
       </c>
     </row>
@@ -575,34 +570,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>東京</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>15番線発</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>東海道新幹線</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>203A</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>のぞみ203号</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>新大阪</t>
         </is>
@@ -616,12 +611,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>名古屋</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>16番線着</t>
         </is>
       </c>
     </row>
@@ -633,29 +628,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>名古屋</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6番線発</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>東海道本線</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>特別快速</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>大垣</t>
         </is>
@@ -667,14 +662,9 @@
           <t>0918</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>大垣</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>番線着</t>
         </is>
       </c>
     </row>
@@ -686,34 +676,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>東京</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>15番線発</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>東海道新幹線</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>203A</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>のぞみ203号</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>新大阪</t>
         </is>
@@ -727,12 +717,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>名古屋</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>16番線着</t>
         </is>
       </c>
     </row>
@@ -744,30 +734,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>名古屋</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6番線発</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>東海道本線</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>特別快速</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>大垣</t>
         </is>
@@ -779,14 +769,10 @@
           <t>0918</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>大垣</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>番線着</t>
         </is>
       </c>
     </row>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TITLE" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20220214" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -421,362 +420,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
   <sheetData/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0700</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>東京</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>東海道新幹線</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>203A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>のぞみ203号</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>新大阪</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>0839</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>名古屋</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0845</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>名古屋</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>東海道本線</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>特別快速</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>大垣</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0918</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>大垣</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>0700</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>東京</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>東海道新幹線</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>203A</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>のぞみ203号</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>新大阪</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0839</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>名古屋</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>0845</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>名古屋</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>東海道本線</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>特別快速</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>大垣</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>0918</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>大垣</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>0700</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>東京</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>東海道新幹線</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>203A</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>のぞみ203号</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>新大阪</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>0839</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>名古屋</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>0845</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>名古屋</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>東海道本線</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>特別快速</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>大垣</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>0918</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>大垣</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TITLE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20220214" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +421,150 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="1" customWidth="1" min="2" max="2"/>
+    <col width="3" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="1" customWidth="1" min="2" max="2"/>
+    <col width="3" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>東海道新幹線</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>203A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>のぞみ203号</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>新大阪</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0839</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0845</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>特別快速</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
 </worksheet>
 </file>
--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -2,28 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TITLE" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20220214" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -51,7 +57,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -420,7 +426,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
@@ -440,13 +446,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
@@ -456,6 +462,7 @@
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -472,6 +479,16 @@
           <t>東京</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="E3" t="inlineStr">
@@ -479,9 +496,14 @@
           <t>東海道新幹線</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>203A</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
         </is>
       </c>
     </row>
@@ -491,9 +513,19 @@
           <t>のぞみ203号</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>新大阪</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>特別快速</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>大垣</t>
         </is>
       </c>
     </row>
@@ -511,6 +543,11 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>名古屋</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>大垣</t>
         </is>
       </c>
     </row>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -2,34 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TITLE" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20220214" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,11 +47,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,7 +426,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
@@ -446,13 +446,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
@@ -464,12 +464,12 @@
   <sheetData>
     <row r="1"/>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>0700</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -479,122 +479,104 @@
           <t>東京</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>東海道新幹線</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>203A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>のぞみ203号</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>新大阪</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>0839</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>名古屋</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>0845</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>名古屋</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>東海道新幹線</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>203A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>東海道本線</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>のぞみ203号</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>新大阪</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>特別快速</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>大垣</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>0839</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>名古屋</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>大垣</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0845</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>名古屋</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>東海道本線</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>特別快速</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>大垣</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>0918</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>大垣</t>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
           <t>東海道新幹線</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>203A</t>
         </is>
@@ -502,7 +502,7 @@
           <t>のぞみ203号</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>新大阪</t>
         </is>
@@ -550,11 +550,7 @@
           <t>東海道本線</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -428,10 +428,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
     <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -454,10 +454,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
     <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0700</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>0839</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>0845</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>0918</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TITLE" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20220214" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20220215" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>04:41</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,60 +485,52 @@
       <c r="C3" s="2" t="n"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>東海道新幹線</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>203A</t>
-        </is>
-      </c>
+          <t>京浜東北線</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="C4" s="2" t="n"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>のぞみ203号</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>新大阪</t>
+          <t>大船行</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>名古屋</t>
+          <t>品川</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>05:10</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>名古屋</t>
+          <t>品川</t>
         </is>
       </c>
     </row>
@@ -555,25 +547,217 @@
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="C8" s="2" t="n"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>特別快速</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>大垣</t>
+          <t>小田原行</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>06:21</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>小田原</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>06:22</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>小田原</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>熱海行</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>06:45</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>熱海</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>06:49</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>熱海</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>浜松行</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>浜松</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>09:23</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>浜松</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>豊橋行</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>09:57</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>豊橋</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>10:02</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>豊橋</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>大垣行</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>大垣</t>
         </is>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TITLE" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20220215" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-15" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TITLE" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-28" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,16 +428,8 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
   <sheetData/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -453,14 +446,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
   <sheetData>
     <row r="1"/>
     <row r="2">
@@ -486,6 +471,330 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>京浜東北線</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>大船行</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>04:53</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>品川</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>05:10</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>品川</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>小田原行</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>06:21</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>小田原</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>06:22</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>小田原</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>熱海行</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>06:45</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>熱海</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>06:49</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>熱海</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>浜松行</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>浜松</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>09:23</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>浜松</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>豊橋行</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>09:57</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>豊橋</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>10:02</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>豊橋</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>大垣行</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大垣</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>東海道本線</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -496,41 +805,33 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>大船行</t>
+          <t>豊橋行</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>04:53</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>07:07</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>品川</t>
+          <t>豊橋</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>05:10</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>07:09</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>品川</t>
+          <t>豊橋</t>
         </is>
       </c>
     </row>
@@ -550,37 +851,33 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>小田原行</t>
+          <t>熱海行</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>06:21</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>小田原</t>
+          <t>熱海</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>06:22</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>小田原</t>
+          <t>熱海</t>
         </is>
       </c>
     </row>
@@ -600,170 +897,28 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>熱海行</t>
+          <t>古河行</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>06:45</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
+          <t>12:28</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>熱海</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>06:49</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>熱海</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>東海道本線</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>浜松行</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>09:18</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>浜松</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>09:23</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>浜松</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>東海道本線</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>豊橋行</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>09:57</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>豊橋</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>10:02</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>豊橋</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>東海道本線</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>大垣行</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>11:32</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>大垣</t>
+          <t>東京</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -763,7 +763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
@@ -797,12 +796,10 @@
           <t>東海道本線</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="C4" s="2" t="n"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>豊橋行</t>
@@ -843,12 +840,10 @@
           <t>東海道本線</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="C8" s="2" t="n"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>熱海行</t>
@@ -889,12 +884,10 @@
           <t>東海道本線</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="C12" s="2" t="n"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>古河行</t>
